--- a/52. The Osbourne Concrete Company.xlsx
+++ b/52. The Osbourne Concrete Company.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7FEC9C-4C16-40D3-938A-1705A2856A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D1E439-73AF-42C9-A7ED-5765827D927E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D827D264-4AB8-4867-B2CA-3FB0E43209AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D827D264-4AB8-4867-B2CA-3FB0E43209AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="problem_statement" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +37,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>The Osbourne Concrete Company</t>
+  </si>
+  <si>
+    <t>Plant 1</t>
+  </si>
+  <si>
+    <t>Plant 2</t>
+  </si>
+  <si>
+    <t>Plant 3</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project C </t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
@@ -92,9 +117,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -111,6 +139,173 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBCADD08-5B25-7FFA-BEBC-1C45A77E2472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1051560" y="952500"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8DACA7-1150-8E61-1070-370AFEB88765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="175260"/>
+          <a:ext cx="11689080" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+            <a:prstClr val="black">
+              <a:alpha val="50000"/>
+            </a:prstClr>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The Osbourne Concrete Company has plants in three locations and is currently working on three major construction projects, each located at a different site. The shipping cost per truckload of concrete, daily plant capacities, and daily project requirements are provided in the table below.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Determine the least-cost way for Osbourne Concrete to meet their requirements.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D22750-1F0F-48E1-A807-18F4D5EB66B8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,4 +646,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B97FDA-9C1E-4EFA-BDAD-B9D387C1129A}">
+  <dimension ref="B11:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/52. The Osbourne Concrete Company.xlsx
+++ b/52. The Osbourne Concrete Company.xlsx
@@ -8,14 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D1E439-73AF-42C9-A7ED-5765827D927E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD978492-1A82-40F9-94AA-74CE8F7A0E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D827D264-4AB8-4867-B2CA-3FB0E43209AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D827D264-4AB8-4867-B2CA-3FB0E43209AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="problem_statement" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$H$13:$J$15</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$H$16:$J$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$K$13:$K$15</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$G$21</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$H$8:$J$8</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$K$5:$K$7</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>The Osbourne Concrete Company</t>
   </si>
@@ -64,13 +100,46 @@
   </si>
   <si>
     <t>Capacity</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2 </t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Data Table:</t>
+  </si>
+  <si>
+    <t>Shipment Table:</t>
+  </si>
+  <si>
+    <t>Objective (Min):</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +155,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,17 +201,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -625,24 +740,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D22750-1F0F-48E1-A807-18F4D5EB66B8}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6</v>
+      </c>
+      <c r="J6" s="5">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>50</v>
+      </c>
+      <c r="I8" s="3">
+        <v>40</v>
+      </c>
+      <c r="J8" s="3">
+        <v>60</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>40</v>
+      </c>
+      <c r="I13" s="6">
+        <v>40</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <f>SUM(H13:J13)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>40</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" ref="K14:K15" si="0">SUM(H14:J14)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="6">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <f>SUM(H13:H15)</f>
+        <v>50</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" ref="I16:J16" si="1">SUM(I13:I15)</f>
+        <v>40</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="7">
+        <f>SUMPRODUCT(H5:J7, H13:J15)</f>
+        <v>1060</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -652,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B97FDA-9C1E-4EFA-BDAD-B9D387C1129A}">
   <dimension ref="B11:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,4 +1050,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1ABF51F-8D75-4920-A3FE-1CD152F10024}">
+  <dimension ref="F4:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/52. The Osbourne Concrete Company.xlsx
+++ b/52. The Osbourne Concrete Company.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD978492-1A82-40F9-94AA-74CE8F7A0E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EFD632-391A-4B43-8417-AE9EE9C583FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D827D264-4AB8-4867-B2CA-3FB0E43209AA}"/>
   </bookViews>
